--- a/biology/Histoire de la zoologie et de la botanique/Jacques-François-Marie_Duverney/Jacques-François-Marie_Duverney.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques-François-Marie_Duverney/Jacques-François-Marie_Duverney.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jacques-Fran%C3%A7ois-Marie_Duverney</t>
+          <t>Jacques-François-Marie_Duverney</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Christophle, dit Jacques-François-Marie Duverney ou Du Verney, né le 3 janvier 1661 et mort à Paris le 16 octobre 1748, est un médecin et anatomiste français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Christophle, dit Jacques-François-Marie Duverney ou Du Verney, né le 3 janvier 1661 et mort à Paris le 16 octobre 1748, est un médecin et anatomiste français.
 Il est frère de Joseph-Guichard Duverney (1648–1730) dont il fut l'un des derniers coopérateurs.
-Il fut membre de l'Académie des sciences en tant qu'élève anatomiste le 7 mars 1699, premier titulaire[2].
+Il fut membre de l'Académie des sciences en tant qu'élève anatomiste le 7 mars 1699, premier titulaire.
 Maître-chirurgien, il devient agrégé au collège de chirurgie en 1731, membre de l’Académie de Chirurgie.
 Il fut le premier démonstrateur titulaire en anatomie au Jardin du roi de 1727 à 1748. Il y fut le maître de Daubenton (1716–1799) et des Mertrud : Antoine Mertrud l'Oncle et Jean-Claude Mertrud (1728–1802) le Neveu.
 Il épousa Marie De Verney, laquelle mourut, rue Coppeau à Paris, le 10 décembre 1750.
